--- a/final_data/ohne_fucking_bug/xlsx/results_850_sig_right_ob.xlsx
+++ b/final_data/ohne_fucking_bug/xlsx/results_850_sig_right_ob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelruland/Documents/studium_paderborn/Bachelorarbeit/BA_thesis/final_data/ohne_fucking_bug/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6B47F-73B5-0047-AD7E-28084C9CF395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7C259-5592-A84E-B75D-B632489D2D19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_850_sig_right_ob" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K158" totalsRowShown="0">
   <autoFilter ref="A1:K158" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:K158">
-    <sortCondition descending="1" ref="F1:F158"/>
+    <sortCondition ref="B1:B158"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{68A591D1-95AC-7E47-805F-9DED1761A982}" name="#" dataDxfId="13"/>
@@ -1245,7 +1245,8 @@
   <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B109:C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,38 +1298,38 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1">
-        <v>0.629</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E2">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
-        <v>1349.45</v>
+        <v>46.509</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H2" s="1">
-        <v>0.77</v>
+        <v>0.02</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>63</v>
@@ -1336,38 +1337,38 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
-        <v>330</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.61799999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="E3">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1313.992</v>
+        <v>13.555</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>0.105263157894736</v>
       </c>
       <c r="H3" s="1">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>64</v>
@@ -1375,316 +1376,316 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>0.41099999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="E4">
-        <v>766</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>881.77599999999995</v>
+        <v>13.555</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>0.41399999999999998</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="E5">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>880.69500000000005</v>
+        <v>14.875999999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>2.77777777777777E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
-        <v>0.39500000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="E6">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
-        <v>847.197</v>
+        <v>189.642</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <v>336</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>0.39400000000000002</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="E7">
-        <v>719</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2">
-        <v>839.54399999999998</v>
+        <v>195.22900000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <v>352</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" s="1">
-        <v>0.54200000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="E8">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>816.05499999999995</v>
+        <v>10.875</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>0.35294117647058798</v>
       </c>
       <c r="H8" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="K8">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
-        <v>347</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.7439999999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="E9">
-        <v>73</v>
-      </c>
-      <c r="F9" s="2">
-        <v>794.53800000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
       <c r="K9">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="1">
-        <v>0.3</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E10">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>642.73</v>
+        <v>10.875</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="1">
-        <v>0.29799999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="E11">
-        <v>642</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2">
-        <v>639.43700000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.29899999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2">
-        <v>637.16399999999999</v>
+        <v>65.195999999999998</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1694,105 +1695,105 @@
       </c>
       <c r="K12">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>329</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>30</v>
+        <v>213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>0.28599999999999998</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E13">
-        <v>587</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2">
-        <v>608.96299999999997</v>
+        <v>43.845999999999997</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="K13">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>0.39500000000000002</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E14">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2">
-        <v>594.99599999999998</v>
+        <v>81.519000000000005</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0.21</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K14">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1">
-        <v>0.41</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="E15">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>594.95399999999995</v>
+        <v>162.916</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1802,141 +1803,141 @@
       </c>
       <c r="K15">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>333</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>0.26400000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E16">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2">
-        <v>562.80200000000002</v>
+        <v>132.81100000000001</v>
       </c>
       <c r="G16" s="1">
-        <v>0.72</v>
+        <v>0.03</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="1">
-        <v>0.72</v>
+        <v>0.02</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
-        <v>0.38400000000000001</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E17">
-        <v>482</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
-        <v>556.37099999999998</v>
+        <v>29.004000000000001</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>9.3023255813953404E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>0.95348837209302295</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
-        <v>0.59599999999999997</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="E18">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2">
-        <v>549.15700000000004</v>
+        <v>73.923000000000002</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1.0204081632653E-2</v>
       </c>
       <c r="H18" s="1">
-        <v>0.53</v>
+        <v>1.0204081632653E-2</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K18">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>320</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="1">
-        <v>0.55500000000000005</v>
+        <v>0.501</v>
       </c>
       <c r="E19">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
-        <v>547.91399999999999</v>
+        <v>163.28399999999999</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0.44</v>
+        <v>0.21</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1951,34 +1952,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>0.254</v>
+        <v>0.124</v>
       </c>
       <c r="E20">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2">
-        <v>545.26300000000003</v>
+        <v>40.664999999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>0.64</v>
+        <v>0.92929292929292895</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>2.02020202020202E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>0.63</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1987,70 +1988,70 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>0.313</v>
+        <v>0.315</v>
       </c>
       <c r="E21">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2">
-        <v>487.47699999999998</v>
+        <v>102.578</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H21" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
-        <v>0.29699999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="E22">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
-        <v>469.65899999999999</v>
+        <v>66.968000000000004</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0.61</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K22">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2059,67 +2060,67 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <v>358</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
-        <v>0.28499999999999998</v>
+        <v>0.156</v>
       </c>
       <c r="E23">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2">
-        <v>450.74700000000001</v>
+        <v>91.358000000000004</v>
       </c>
       <c r="G23" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="K23">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
-        <v>350</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
       </c>
       <c r="D24" s="1">
-        <v>0.28799999999999998</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="E24">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2">
-        <v>433.911</v>
+        <v>173.49199999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0.69</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2131,31 +2132,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="E25">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F25" s="2">
-        <v>425.46100000000001</v>
+        <v>146.27799999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
       <c r="I25" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -2167,166 +2168,166 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <v>338</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>23</v>
+        <v>226</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
       </c>
       <c r="D26" s="1">
-        <v>0.25700000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E26">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F26" s="2">
-        <v>399.65300000000002</v>
+        <v>120.774</v>
       </c>
       <c r="G26" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1.03092783505154E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K26">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
-        <v>0.183</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="E27">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2">
-        <v>394.01600000000002</v>
+        <v>247.81200000000001</v>
       </c>
       <c r="G27" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="I27" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <v>334</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>0.182</v>
+        <v>0.15</v>
       </c>
       <c r="E28">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>387.87599999999998</v>
+        <v>12.651999999999999</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
       <c r="D29" s="1">
-        <v>0.18</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="E29">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="F29" s="2">
-        <v>382.803</v>
+        <v>25.032</v>
       </c>
       <c r="G29" s="1">
-        <v>0.02</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>0.81428571428571395</v>
       </c>
       <c r="I29" s="1">
-        <v>0.02</v>
+        <v>1.42857142857142E-2</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K29">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1">
-        <v>0.17699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="E30">
-        <v>422</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2">
-        <v>380.935</v>
+        <v>57.265000000000001</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2338,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="K30">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2347,61 +2348,61 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E31">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2">
+        <v>97.168999999999997</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>11</v>
       </c>
-      <c r="D31" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="E31">
-        <v>196</v>
-      </c>
-      <c r="F31" s="2">
-        <v>367.54</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
       <c r="K31">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="E32">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2">
-        <v>354.62200000000001</v>
+        <v>193.55799999999999</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2419,22 +2420,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>0.224</v>
+        <v>0.31</v>
       </c>
       <c r="E33">
-        <v>321</v>
+        <v>181</v>
       </c>
       <c r="F33" s="2">
-        <v>337.995</v>
+        <v>219.17</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -2455,22 +2456,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1">
-        <v>0.151</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E34">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2">
-        <v>321.197</v>
+        <v>98.39</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -2482,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2491,34 +2492,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
-        <v>0.318</v>
+        <v>0.184</v>
       </c>
       <c r="E35">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="F35" s="2">
-        <v>313.73599999999999</v>
+        <v>130.71600000000001</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1.23456790123456E-2</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K35">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2527,22 +2528,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1">
-        <v>0.33900000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="E36">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="F36" s="2">
-        <v>311.99799999999999</v>
+        <v>218.69300000000001</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -2554,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2563,22 +2564,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1">
-        <v>0.14499999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E37">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="F37" s="2">
-        <v>311.89699999999999</v>
+        <v>189.941</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -2590,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K37">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2599,28 +2600,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1">
-        <v>0.19400000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="E38">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="F38" s="2">
-        <v>308.10599999999999</v>
+        <v>367.54</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H38" s="1">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -2635,70 +2636,70 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>0.13700000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="E39">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="F39" s="2">
-        <v>292.39999999999998</v>
+        <v>152.565</v>
       </c>
       <c r="G39" s="1">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="H39" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K39">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1">
-        <v>0.193</v>
+        <v>0.186</v>
       </c>
       <c r="E40">
-        <v>147</v>
+        <v>290</v>
       </c>
       <c r="F40" s="2">
-        <v>290.72899999999998</v>
+        <v>270.64600000000002</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K40">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2707,28 +2708,28 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <v>343</v>
+        <v>241</v>
       </c>
       <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="C41" t="s">
-        <v>27</v>
-      </c>
       <c r="D41" s="1">
-        <v>0.193</v>
+        <v>0.41</v>
       </c>
       <c r="E41">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="F41" s="2">
-        <v>290.58699999999999</v>
+        <v>594.95399999999995</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -2743,28 +2744,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
-        <v>0.28899999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="E42">
-        <v>21</v>
+        <v>482</v>
       </c>
       <c r="F42" s="2">
-        <v>288.49400000000003</v>
+        <v>556.37099999999998</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -2774,135 +2775,135 @@
       </c>
       <c r="K42">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
         <v>11</v>
       </c>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
       <c r="D43" s="1">
-        <v>0.253</v>
+        <v>0.193</v>
       </c>
       <c r="E43">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F43" s="2">
-        <v>283.30099999999999</v>
+        <v>80.546000000000006</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>0.59</v>
+        <v>4.54545454545454E-2</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K43">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>0.30399999999999999</v>
+        <v>0.255</v>
       </c>
       <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2">
+        <v>106.557</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.77173913043478204</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>92</v>
       </c>
-      <c r="F44" s="2">
-        <v>280.459</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
       <c r="K44">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1">
-        <v>0.183</v>
+        <v>0.224</v>
       </c>
       <c r="E45">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2">
-        <v>276.26499999999999</v>
+        <v>206.328</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K45">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1">
-        <v>0.186</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E46">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="F46" s="2">
-        <v>270.64600000000002</v>
+        <v>136.416</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2914,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="K46">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2923,25 +2924,25 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="1">
-        <v>0.27200000000000002</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="E47">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F47" s="2">
-        <v>268.43</v>
+        <v>280.459</v>
       </c>
       <c r="G47" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2954,27 +2955,27 @@
       </c>
       <c r="K47">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
-        <v>344</v>
+        <v>248</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D48" s="1">
-        <v>0.17699999999999999</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E48">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="F48" s="2">
-        <v>266.93400000000003</v>
+        <v>244.029</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2986,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K48">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2995,28 +2996,28 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D49" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E49">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2">
-        <v>263.86399999999998</v>
+        <v>549.15700000000004</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>0.93</v>
+        <v>0.53</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -3031,64 +3032,64 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1">
-        <v>0.42199999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="E50">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2">
-        <v>263.108</v>
+        <v>121.965</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
-        <v>0.86</v>
+        <v>0.01</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
-        <v>290</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>31</v>
+        <v>251</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>0.48899999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="F51" s="2">
-        <v>248.24600000000001</v>
+        <v>311.99799999999999</v>
       </c>
       <c r="G51" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -3098,33 +3099,33 @@
       </c>
       <c r="K51">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>0.42399999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E52">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2">
-        <v>247.81200000000001</v>
+        <v>141.58600000000001</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H52" s="1">
-        <v>0.97</v>
+        <v>0.04</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -3139,34 +3140,34 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D53" s="1">
-        <v>0.254</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E53">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2">
-        <v>246.767</v>
+        <v>135.833</v>
       </c>
       <c r="G53" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K53">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3175,28 +3176,28 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1">
-        <v>0.26500000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="E54">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="F54" s="2">
-        <v>244.029</v>
+        <v>246.767</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -3206,33 +3207,33 @@
       </c>
       <c r="K54">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E55">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="F55" s="2">
-        <v>234.88</v>
+        <v>188.84200000000001</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -3242,135 +3243,135 @@
       </c>
       <c r="K55">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D56" s="1">
-        <v>0.45900000000000002</v>
+        <v>0.183</v>
       </c>
       <c r="E56">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="F56" s="2">
-        <v>233.398</v>
+        <v>394.01600000000002</v>
       </c>
       <c r="G56" s="1">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="H56" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D57" s="1">
-        <v>0.26400000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E57">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="F57" s="2">
-        <v>233.24100000000001</v>
+        <v>311.89699999999999</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K57">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
-        <v>0.31</v>
+        <v>0.254</v>
       </c>
       <c r="E58">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="F58" s="2">
-        <v>219.17</v>
+        <v>545.26300000000003</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D59" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="E59">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="F59" s="2">
-        <v>218.69300000000001</v>
+        <v>642.73</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -3382,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K59">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3391,22 +3392,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D60" s="1">
-        <v>0.14299999999999999</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="E60">
-        <v>134</v>
+        <v>642</v>
       </c>
       <c r="F60" s="2">
-        <v>216.011</v>
+        <v>639.43700000000001</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -3418,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="K60">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3427,34 +3428,34 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
-        <v>357</v>
+        <v>261</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D61" s="1">
-        <v>0.13300000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="E61">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="F61" s="2">
-        <v>210.726</v>
+        <v>1349.45</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>0.33333333333333298</v>
+        <v>0.77</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K61">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3463,22 +3464,22 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1">
-        <v>0.13800000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E62">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="F62" s="2">
-        <v>208.24100000000001</v>
+        <v>380.935</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -3490,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K62">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3499,34 +3500,34 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D63" s="1">
-        <v>0.224</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="E63">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="F63" s="2">
-        <v>206.328</v>
+        <v>847.197</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K63">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3535,178 +3536,178 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="C64" t="s">
-        <v>29</v>
-      </c>
       <c r="D64" s="1">
-        <v>0.13</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="E64">
-        <v>52</v>
+        <v>766</v>
       </c>
       <c r="F64" s="2">
-        <v>205.642</v>
+        <v>881.77599999999995</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>0.68421052631578905</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K64">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1">
-        <v>0.20399999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="E65">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="F65" s="2">
-        <v>201.536</v>
+        <v>6.9720000000000004</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>8.6956521739130405E-2</v>
       </c>
       <c r="J65">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="K65">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D66" s="1">
-        <v>0.20100000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="E66">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2">
-        <v>200.685</v>
+        <v>233.24100000000001</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K66">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D67" s="1">
-        <v>0.17799999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="E67">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>199.31</v>
+        <v>10.875</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H67" s="1">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K67">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1">
-        <v>0.36099999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E68">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F68" s="2">
-        <v>195.22900000000001</v>
+        <v>12.564</v>
       </c>
       <c r="G68" s="1">
-        <v>0.06</v>
+        <v>0.225806451612903</v>
       </c>
       <c r="H68" s="1">
-        <v>0.01</v>
+        <v>0.51612903225806395</v>
       </c>
       <c r="I68" s="1">
-        <v>0.06</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="J68">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K68">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3715,106 +3716,106 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D69" s="1">
-        <v>0.27400000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="E69">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F69" s="2">
-        <v>193.55799999999999</v>
+        <v>13.4</v>
       </c>
       <c r="G69" s="1">
-        <v>0.02</v>
+        <v>0.15625</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="K69">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D70" s="1">
-        <v>0.13100000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="E70">
-        <v>223</v>
+        <v>2</v>
       </c>
       <c r="F70" s="2">
-        <v>189.941</v>
+        <v>29.544</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>0.73684210526315697</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="J70">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K70">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="1">
-        <v>0.35</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E71">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F71" s="2">
-        <v>189.642</v>
+        <v>31.175999999999998</v>
       </c>
       <c r="G71" s="1">
-        <v>1</v>
+        <v>0.146666666666666</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K71">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3823,34 +3824,34 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D72" s="1">
-        <v>0.19400000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E72">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F72" s="2">
-        <v>188.84200000000001</v>
+        <v>44.593000000000004</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>0.48</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K72">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3859,64 +3860,64 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1">
-        <v>0.16800000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E73">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2">
-        <v>188.006</v>
+        <v>69.363</v>
       </c>
       <c r="G73" s="1">
-        <v>0</v>
+        <v>1.0869565217391301E-2</v>
       </c>
       <c r="H73" s="1">
-        <v>0.54545454545454497</v>
+        <v>1.0869565217391301E-2</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K73">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
         <v>31</v>
       </c>
       <c r="D74" s="1">
-        <v>0.309</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="E74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2">
-        <v>186.97399999999999</v>
+        <v>165.49700000000001</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -3931,31 +3932,31 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
-        <v>0.34599999999999997</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="E75">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2">
-        <v>176.01</v>
+        <v>101.7</v>
       </c>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H75" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J75">
         <v>100</v>
@@ -3967,34 +3968,34 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D76" s="1">
-        <v>0.28100000000000003</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="E76">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2">
-        <v>175.32599999999999</v>
+        <v>79.843000000000004</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>0.59595959595959502</v>
+        <v>0.75555555555555498</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K76">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4003,34 +4004,34 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D77" s="1">
-        <v>0.29699999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E77">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F77" s="2">
-        <v>173.49199999999999</v>
+        <v>67.286000000000001</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.14772727272727201</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K77">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4039,34 +4040,34 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D78" s="1">
-        <v>0.32700000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E78">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2">
-        <v>166.41499999999999</v>
+        <v>175.32599999999999</v>
       </c>
       <c r="G78" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>0.59595959595959502</v>
       </c>
       <c r="I78" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K78">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4075,31 +4076,31 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E79">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2">
-        <v>165.49700000000001</v>
+        <v>143.03</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
       <c r="I79" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J79">
         <v>100</v>
@@ -4111,64 +4112,64 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D80" s="1">
-        <v>0.501</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E80">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F80" s="2">
-        <v>163.28399999999999</v>
+        <v>128.20400000000001</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K80">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="1">
-        <v>0.39300000000000002</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="E81">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F81" s="2">
-        <v>162.916</v>
+        <v>263.108</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -4183,106 +4184,106 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D82" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="E82">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="F82" s="2">
-        <v>159.023</v>
+        <v>32.183</v>
       </c>
       <c r="G82" s="1">
-        <v>3.4482758620689599E-2</v>
+        <v>4.08163265306122E-2</v>
       </c>
       <c r="H82" s="1">
-        <v>0.78160919540229801</v>
+        <v>0.83673469387755095</v>
       </c>
       <c r="I82" s="1">
-        <v>3.4482758620689599E-2</v>
+        <v>0.70408163265306101</v>
       </c>
       <c r="J82">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K82">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D83" s="1">
-        <v>0.105</v>
+        <v>0.223</v>
       </c>
       <c r="E83">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="F83" s="2">
-        <v>152.565</v>
+        <v>88.343000000000004</v>
       </c>
       <c r="G83" s="1">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="H83" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="J83">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K83">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D84" s="1">
-        <v>0.25</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="E84">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="F84" s="2">
-        <v>146.27799999999999</v>
+        <v>46.05</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="I84" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="K84">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4291,34 +4292,34 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" s="1">
-        <v>0.22900000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E85">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F85" s="2">
-        <v>143.03</v>
+        <v>67.795000000000002</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <v>0.52</v>
+        <v>0.96551724137931005</v>
       </c>
       <c r="I85" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K85">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4327,70 +4328,70 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="E86">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F86" s="2">
-        <v>142.143</v>
+        <v>53.154000000000003</v>
       </c>
       <c r="G86" s="1">
-        <v>0.25252525252525199</v>
+        <v>0.89743589743589702</v>
       </c>
       <c r="H86" s="1">
-        <v>1.01010101010101E-2</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>1.01010101010101E-2</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="J86">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="K86">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D87" s="1">
-        <v>0.126</v>
+        <v>0.154</v>
       </c>
       <c r="E87">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2">
-        <v>141.97</v>
+        <v>78.430999999999997</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>0</v>
+        <v>2.5641025641025599E-2</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4399,28 +4400,28 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D88" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="E88">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F88" s="2">
-        <v>141.58600000000001</v>
+        <v>176.01</v>
       </c>
       <c r="G88" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H88" s="1">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -4435,22 +4436,22 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D89" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E89">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2">
-        <v>138.46199999999999</v>
+        <v>107.794</v>
       </c>
       <c r="G89" s="1">
         <v>0</v>
@@ -4462,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K89">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4471,34 +4472,34 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
-        <v>339</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>50</v>
+        <v>290</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D90" s="1">
-        <v>0.22600000000000001</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="E90">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F90" s="2">
-        <v>136.66200000000001</v>
+        <v>248.24600000000001</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H90" s="1">
-        <v>0.35593220338983</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="K90">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4507,25 +4508,25 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D91" s="1">
-        <v>0.14799999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="E91">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2">
-        <v>136.416</v>
+        <v>113.232</v>
       </c>
       <c r="G91" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
@@ -4534,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="K91">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4543,70 +4544,70 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D92" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="E92">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F92" s="2">
-        <v>135.833</v>
+        <v>233.398</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H92" s="1">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K92">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1">
-        <v>0.12</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="E93">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F93" s="2">
-        <v>134.672</v>
+        <v>67.016000000000005</v>
       </c>
       <c r="G93" s="1">
-        <v>0.44776119402984998</v>
+        <v>1</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
       </c>
       <c r="I93" s="1">
-        <v>0.44776119402984998</v>
+        <v>0.98</v>
       </c>
       <c r="J93">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="K93">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4615,31 +4616,31 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="1">
-        <v>0.32</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="E94">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2">
-        <v>132.81100000000001</v>
+        <v>166.41499999999999</v>
       </c>
       <c r="G94" s="1">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H94" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I94" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J94">
         <v>100</v>
@@ -4651,106 +4652,106 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D95" s="1">
-        <v>0.184</v>
+        <v>0.161</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F95" s="2">
-        <v>130.71600000000001</v>
+        <v>82.816999999999993</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <v>1.23456790123456E-2</v>
+        <v>0.98550724637681097</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K95">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D96" s="1">
-        <v>0.20599999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E96">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="F96" s="2">
-        <v>128.20400000000001</v>
+        <v>69.98</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="K96">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D97" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F97" s="2">
-        <v>127.974</v>
+        <v>106.831</v>
       </c>
       <c r="G97" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H97" s="1">
-        <v>0.247422680412371</v>
+        <v>0.63</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J97">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K97">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4759,34 +4760,34 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D98" s="1">
-        <v>0.13200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E98">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="F98" s="2">
-        <v>121.965</v>
+        <v>134.672</v>
       </c>
       <c r="G98" s="1">
-        <v>1</v>
+        <v>0.44776119402984998</v>
       </c>
       <c r="H98" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I98" s="1">
-        <v>1</v>
+        <v>0.44776119402984998</v>
       </c>
       <c r="J98">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="K98">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4795,106 +4796,106 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D99" s="1">
-        <v>0.20599999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E99">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F99" s="2">
-        <v>120.774</v>
+        <v>188.006</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <v>1.03092783505154E-2</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="K99">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D100" s="1">
-        <v>0.223</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="E100">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2">
-        <v>113.232</v>
+        <v>159.023</v>
       </c>
       <c r="G100" s="1">
-        <v>0.03</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="H100" s="1">
-        <v>0</v>
+        <v>0.78160919540229801</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="J100">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K100">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D101" s="1">
-        <v>0.185</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E101">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2">
-        <v>112.221</v>
+        <v>263.86399999999998</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <v>0.40816326530612201</v>
+        <v>0.93</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K101">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4903,22 +4904,22 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D102" s="1">
-        <v>0.21199999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="E102">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="F102" s="2">
-        <v>107.794</v>
+        <v>141.97</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
@@ -4930,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="K102">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4939,31 +4940,31 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D103" s="1">
-        <v>0.20799999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="E103">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2">
-        <v>106.831</v>
+        <v>283.30099999999999</v>
       </c>
       <c r="G103" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="I103" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>100</v>
@@ -4975,67 +4976,67 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D104" s="1">
-        <v>0.255</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="F104" s="2">
-        <v>106.557</v>
+        <v>199.31</v>
       </c>
       <c r="G104" s="1">
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <v>0.77173913043478204</v>
+        <v>0.02</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K104">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D105" s="1">
-        <v>0.315</v>
+        <v>0.38</v>
       </c>
       <c r="E105">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2">
-        <v>102.578</v>
+        <v>425.46100000000001</v>
       </c>
       <c r="G105" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H105" s="1">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J105">
         <v>100</v>
@@ -5047,322 +5048,322 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106" s="1">
-        <v>0.28899999999999998</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E106">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F106" s="2">
-        <v>101.7</v>
+        <v>32.387</v>
       </c>
       <c r="G106" s="1">
-        <v>0.16</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="H106" s="1">
-        <v>0</v>
+        <v>0.91176470588235203</v>
       </c>
       <c r="I106" s="1">
-        <v>0.01</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="J106">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="K106">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D107" s="1">
-        <v>0.13800000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107" s="2">
+        <v>25.175000000000001</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.891891891891891</v>
+      </c>
+      <c r="I107" s="1">
+        <v>5.4054054054054002E-2</v>
+      </c>
+      <c r="J107">
         <v>37</v>
       </c>
-      <c r="F107" s="2">
-        <v>98.39</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0</v>
-      </c>
-      <c r="I107" s="1">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>50</v>
-      </c>
       <c r="K107">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
-        <v>231</v>
-      </c>
-      <c r="B108" t="s">
-        <v>48</v>
-      </c>
-      <c r="C108" t="s">
-        <v>12</v>
+        <v>308</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D108" s="1">
-        <v>0.13700000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E108">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F108" s="2">
-        <v>97.168999999999997</v>
+        <v>59.43</v>
       </c>
       <c r="G108" s="1">
-        <v>0</v>
+        <v>1.1904761904761901E-2</v>
       </c>
       <c r="H108" s="1">
-        <v>0</v>
+        <v>0.64285714285714202</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K108">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D109" s="1">
-        <v>0.156</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="E109">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="F109" s="2">
-        <v>91.358000000000004</v>
+        <v>13.555</v>
       </c>
       <c r="G109" s="1">
         <v>0</v>
       </c>
       <c r="H109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K109">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D110" s="1">
-        <v>0.223</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>19.914999999999999</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110">
         <v>23</v>
       </c>
-      <c r="F110" s="2">
-        <v>88.343000000000004</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I110" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="J110">
-        <v>100</v>
-      </c>
       <c r="K110">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1">
-        <v>0.161</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F111" s="2">
-        <v>82.816999999999993</v>
+        <v>20.32</v>
       </c>
       <c r="G111" s="1">
-        <v>0</v>
+        <v>9.2592592592592504E-2</v>
       </c>
       <c r="H111" s="1">
-        <v>0.98550724637681097</v>
+        <v>1</v>
       </c>
       <c r="I111" s="1">
-        <v>0</v>
+        <v>3.7037037037037E-2</v>
       </c>
       <c r="J111">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K111">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <v>14.875999999999999</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112">
         <v>14</v>
       </c>
-      <c r="D112" s="1">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="E112">
-        <v>66</v>
-      </c>
-      <c r="F112" s="2">
-        <v>81.519000000000005</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
-      <c r="H112" s="1">
-        <v>3.03030303030303E-2</v>
-      </c>
-      <c r="I112" s="1">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>66</v>
-      </c>
       <c r="K112">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D113" s="1">
-        <v>0.193</v>
+        <v>0.246</v>
       </c>
       <c r="E113">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F113" s="2">
-        <v>80.546000000000006</v>
+        <v>19.914999999999999</v>
       </c>
       <c r="G113" s="1">
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <v>4.54545454545454E-2</v>
+        <v>1</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K113">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
-        <v>276</v>
-      </c>
-      <c r="B114" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" t="s">
-        <v>31</v>
+        <v>314</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="D114" s="1">
-        <v>0.24299999999999999</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="E114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F114" s="2">
-        <v>79.843000000000004</v>
+        <v>23.751000000000001</v>
       </c>
       <c r="G114" s="1">
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <v>0.75555555555555498</v>
+        <v>1</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5371,74 +5372,74 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D115" s="1">
-        <v>0.154</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="E115">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="F115" s="2">
-        <v>78.430999999999997</v>
+        <v>38.439</v>
       </c>
       <c r="G115" s="1">
-        <v>0</v>
+        <v>1.1627906976744099E-2</v>
       </c>
       <c r="H115" s="1">
-        <v>2.5641025641025599E-2</v>
+        <v>1</v>
       </c>
       <c r="I115" s="1">
-        <v>0</v>
+        <v>1.1627906976744099E-2</v>
       </c>
       <c r="J115">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="K115">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D116" s="1">
-        <v>0.22700000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E116">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F116" s="2">
-        <v>73.923000000000002</v>
+        <v>127.974</v>
       </c>
       <c r="G116" s="1">
-        <v>1.0204081632653E-2</v>
+        <v>0</v>
       </c>
       <c r="H116" s="1">
-        <v>1.0204081632653E-2</v>
+        <v>0.247422680412371</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K116">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -5479,70 +5480,70 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F118" s="2">
-        <v>69.98</v>
+        <v>201.536</v>
       </c>
       <c r="G118" s="1">
         <v>0</v>
       </c>
       <c r="H118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="K118">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
         <v>30</v>
       </c>
       <c r="D119" s="1">
-        <v>0.19700000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="E119">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="F119" s="2">
-        <v>69.363</v>
+        <v>234.88</v>
       </c>
       <c r="G119" s="1">
-        <v>1.0869565217391301E-2</v>
+        <v>0</v>
       </c>
       <c r="H119" s="1">
-        <v>1.0869565217391301E-2</v>
+        <v>0</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K119">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5551,34 +5552,34 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
-        <v>285</v>
-      </c>
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" t="s">
+        <v>320</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D120" s="1">
-        <v>0.26700000000000002</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F120" s="2">
-        <v>67.795000000000002</v>
+        <v>547.91399999999999</v>
       </c>
       <c r="G120" s="1">
         <v>0</v>
       </c>
       <c r="H120" s="1">
-        <v>0.96551724137931005</v>
+        <v>0.44</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K120">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5587,136 +5588,136 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="B121" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E121">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="F121" s="2">
-        <v>67.286000000000001</v>
+        <v>138.46199999999999</v>
       </c>
       <c r="G121" s="1">
         <v>0</v>
       </c>
       <c r="H121" s="1">
-        <v>0.14772727272727201</v>
+        <v>0</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="K121">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D122" s="1">
-        <v>0.13200000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="E122">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F122" s="2">
-        <v>67.016000000000005</v>
+        <v>268.43</v>
       </c>
       <c r="G122" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H122" s="1">
         <v>0</v>
       </c>
       <c r="I122" s="1">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>100</v>
       </c>
       <c r="K122">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
-        <v>0.23</v>
+        <v>0.318</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="F123" s="2">
-        <v>66.968000000000004</v>
+        <v>313.73599999999999</v>
       </c>
       <c r="G123" s="1">
         <v>0</v>
       </c>
       <c r="H123" s="1">
-        <v>0.952380952380952</v>
+        <v>0</v>
       </c>
       <c r="I123" s="1">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K123">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D124" s="1">
-        <v>0.26400000000000001</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="E124">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F124" s="2">
-        <v>65.195999999999998</v>
+        <v>288.49400000000003</v>
       </c>
       <c r="G124" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H124" s="1">
-        <v>0.01</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I124" s="1">
         <v>0</v>
@@ -5731,34 +5732,34 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
-        <v>308</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="1">
-        <v>0.14799999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="E125">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F125" s="2">
-        <v>59.43</v>
+        <v>142.143</v>
       </c>
       <c r="G125" s="1">
-        <v>1.1904761904761901E-2</v>
+        <v>0.25252525252525199</v>
       </c>
       <c r="H125" s="1">
-        <v>0.64285714285714202</v>
+        <v>1.01010101010101E-2</v>
       </c>
       <c r="I125" s="1">
-        <v>0</v>
+        <v>1.01010101010101E-2</v>
       </c>
       <c r="J125">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K125">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5767,22 +5768,22 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="B126" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D126" s="1">
-        <v>0.17</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="E126">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F126" s="2">
-        <v>57.265000000000001</v>
+        <v>200.685</v>
       </c>
       <c r="G126" s="1">
         <v>0</v>
@@ -5794,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="K126">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5803,142 +5804,142 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D127" s="1">
-        <v>0.104</v>
+        <v>0.18</v>
       </c>
       <c r="E127">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="F127" s="2">
-        <v>53.154000000000003</v>
+        <v>382.803</v>
       </c>
       <c r="G127" s="1">
-        <v>0.89743589743589702</v>
+        <v>0.02</v>
       </c>
       <c r="H127" s="1">
         <v>0</v>
       </c>
       <c r="I127" s="1">
-        <v>0.487179487179487</v>
+        <v>0.02</v>
       </c>
       <c r="J127">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="K127">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D128" s="1">
-        <v>0.29499999999999998</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="E128">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="F128" s="2">
-        <v>46.509</v>
+        <v>637.16399999999999</v>
       </c>
       <c r="G128" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H128" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I128" s="1">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>100</v>
       </c>
       <c r="K128">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
-        <v>284</v>
-      </c>
-      <c r="B129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" t="s">
-        <v>50</v>
+        <v>329</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="D129" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E129">
-        <v>4</v>
+        <v>587</v>
       </c>
       <c r="F129" s="2">
-        <v>46.05</v>
+        <v>608.96299999999997</v>
       </c>
       <c r="G129" s="1">
         <v>0</v>
       </c>
       <c r="H129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K129">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
-        <v>272</v>
-      </c>
-      <c r="B130" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" t="s">
+        <v>330</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D130" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2">
-        <v>44.593000000000004</v>
+        <v>1313.992</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
       </c>
       <c r="H130" s="1">
-        <v>0.86842105263157898</v>
+        <v>0.36</v>
       </c>
       <c r="I130" s="1">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K130">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5947,250 +5948,250 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D131" s="1">
-        <v>0.19600000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="E131">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="F131" s="2">
-        <v>43.845999999999997</v>
+        <v>321.197</v>
       </c>
       <c r="G131" s="1">
         <v>0</v>
       </c>
       <c r="H131" s="1">
-        <v>0.71428571428571397</v>
+        <v>0</v>
       </c>
       <c r="I131" s="1">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="K131">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1">
-        <v>0.124</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E132">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="F132" s="2">
-        <v>40.664999999999999</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="G132" s="1">
-        <v>0.92929292929292895</v>
+        <v>0.02</v>
       </c>
       <c r="H132" s="1">
-        <v>2.02020202020202E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I132" s="1">
-        <v>0.69696969696969702</v>
+        <v>0.01</v>
       </c>
       <c r="J132">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K132">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
-        <v>315</v>
-      </c>
-      <c r="B133" t="s">
-        <v>61</v>
-      </c>
-      <c r="C133" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="1">
-        <v>0.47599999999999998</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="F133" s="2">
-        <v>38.439</v>
+        <v>562.80200000000002</v>
       </c>
       <c r="G133" s="1">
-        <v>1.1627906976744099E-2</v>
+        <v>0.72</v>
       </c>
       <c r="H133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" s="1">
-        <v>1.1627906976744099E-2</v>
+        <v>0.72</v>
       </c>
       <c r="J133">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K133">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D134" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>431</v>
       </c>
       <c r="F134" s="2">
-        <v>32.387</v>
+        <v>387.87599999999998</v>
       </c>
       <c r="G134" s="1">
-        <v>5.8823529411764698E-2</v>
+        <v>0</v>
       </c>
       <c r="H134" s="1">
-        <v>0.91176470588235203</v>
+        <v>0</v>
       </c>
       <c r="I134" s="1">
-        <v>2.94117647058823E-2</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="K134">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D135" s="1">
-        <v>0.37</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="E135">
+        <v>224</v>
+      </c>
+      <c r="F135" s="2">
+        <v>880.69500000000005</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>100</v>
+      </c>
+      <c r="K135">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="F135" s="2">
-        <v>32.183</v>
-      </c>
-      <c r="G135" s="1">
-        <v>4.08163265306122E-2</v>
-      </c>
-      <c r="H135" s="1">
-        <v>0.83673469387755095</v>
-      </c>
-      <c r="I135" s="1">
-        <v>0.70408163265306101</v>
-      </c>
-      <c r="J135">
-        <v>98</v>
-      </c>
-      <c r="K135">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>719</v>
       </c>
       <c r="F136" s="2">
-        <v>31.175999999999998</v>
+        <v>839.54399999999998</v>
       </c>
       <c r="G136" s="1">
-        <v>0.146666666666666</v>
+        <v>0</v>
       </c>
       <c r="H136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K136">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="1">
-        <v>0.222</v>
+        <v>0.313</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="F137" s="2">
-        <v>29.544</v>
+        <v>487.47699999999998</v>
       </c>
       <c r="G137" s="1">
-        <v>0.33333333333333298</v>
+        <v>1</v>
       </c>
       <c r="H137" s="1">
-        <v>0.73684210526315697</v>
+        <v>0.02</v>
       </c>
       <c r="I137" s="1">
-        <v>3.5087719298245598E-2</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K137">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6199,34 +6200,34 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
-        <v>217</v>
-      </c>
-      <c r="B138" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" t="s">
-        <v>38</v>
+        <v>338</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D138" s="1">
-        <v>0.16900000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F138" s="2">
-        <v>29.004000000000001</v>
+        <v>399.65300000000002</v>
       </c>
       <c r="G138" s="1">
-        <v>9.3023255813953404E-2</v>
+        <v>0.16</v>
       </c>
       <c r="H138" s="1">
-        <v>0.95348837209302295</v>
+        <v>0</v>
       </c>
       <c r="I138" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J138">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="K138">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6235,70 +6236,70 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
         <v>50</v>
       </c>
       <c r="D139" s="1">
-        <v>0.19</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F139" s="2">
-        <v>25.175000000000001</v>
+        <v>136.66200000000001</v>
       </c>
       <c r="G139" s="1">
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <v>0.891891891891891</v>
+        <v>0.35593220338983</v>
       </c>
       <c r="I139" s="1">
-        <v>5.4054054054054002E-2</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K139">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D140" s="1">
-        <v>0.25800000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F140" s="2">
-        <v>25.032</v>
+        <v>186.97399999999999</v>
       </c>
       <c r="G140" s="1">
-        <v>2.8571428571428501E-2</v>
+        <v>0</v>
       </c>
       <c r="H140" s="1">
-        <v>0.81428571428571395</v>
+        <v>0.59</v>
       </c>
       <c r="I140" s="1">
-        <v>1.42857142857142E-2</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K140">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6307,34 +6308,34 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
-        <v>314</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>17</v>
+        <v>341</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
       </c>
       <c r="D141" s="1">
-        <v>0.29399999999999998</v>
+        <v>0.185</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F141" s="2">
-        <v>23.751000000000001</v>
+        <v>112.221</v>
       </c>
       <c r="G141" s="1">
         <v>0</v>
       </c>
       <c r="H141" s="1">
-        <v>1</v>
+        <v>0.40816326530612201</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
       </c>
       <c r="J141">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="K141">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6343,142 +6344,142 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="B142" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D142" s="1">
-        <v>0.42599999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="F142" s="2">
-        <v>20.32</v>
+        <v>216.011</v>
       </c>
       <c r="G142" s="1">
-        <v>9.2592592592592504E-2</v>
+        <v>0</v>
       </c>
       <c r="H142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" s="1">
-        <v>3.7037037037037E-2</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="K142">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D143" s="1">
-        <v>0.41799999999999998</v>
+        <v>0.193</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2">
-        <v>19.914999999999999</v>
+        <v>290.58699999999999</v>
       </c>
       <c r="G143" s="1">
         <v>0</v>
       </c>
       <c r="H143" s="1">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I143" s="1">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="K143">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D144" s="1">
-        <v>0.246</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="F144" s="2">
-        <v>19.914999999999999</v>
+        <v>266.93400000000003</v>
       </c>
       <c r="G144" s="1">
         <v>0</v>
       </c>
       <c r="H144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" s="1">
         <v>0</v>
       </c>
       <c r="J144">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="K144">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
-        <v>205</v>
+        <v>345</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D145" s="1">
-        <v>0.53900000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="F145" s="2">
-        <v>14.875999999999999</v>
+        <v>594.99599999999998</v>
       </c>
       <c r="G145" s="1">
-        <v>2.77777777777777E-2</v>
+        <v>0</v>
       </c>
       <c r="H145" s="1">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="I145" s="1">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="K145">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6487,286 +6488,286 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B146" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D146" s="1">
-        <v>0.184</v>
+        <v>0.224</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="F146" s="2">
-        <v>14.875999999999999</v>
+        <v>337.995</v>
       </c>
       <c r="G146" s="1">
         <v>0</v>
       </c>
       <c r="H146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" s="1">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K146">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
-        <v>203</v>
-      </c>
-      <c r="B147" t="s">
-        <v>58</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
+        <v>347</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D147" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2">
-        <v>13.555</v>
+        <v>794.53800000000001</v>
       </c>
       <c r="G147" s="1">
-        <v>0.105263157894736</v>
+        <v>0</v>
       </c>
       <c r="H147" s="1">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K147">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
-        <v>204</v>
+        <v>348</v>
       </c>
       <c r="B148" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D148" s="1">
-        <v>0.49099999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="F148" s="2">
-        <v>13.555</v>
+        <v>290.72899999999998</v>
       </c>
       <c r="G148" s="1">
         <v>0</v>
       </c>
       <c r="H148" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I148" s="1">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K148">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1">
-        <v>0.28399999999999997</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F149" s="2">
-        <v>13.555</v>
+        <v>208.24100000000001</v>
       </c>
       <c r="G149" s="1">
         <v>0</v>
       </c>
       <c r="H149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" s="1">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="K149">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
-        <v>269</v>
-      </c>
-      <c r="B150" t="s">
-        <v>35</v>
-      </c>
-      <c r="C150" t="s">
-        <v>31</v>
+        <v>350</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D150" s="1">
-        <v>0.22</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2">
-        <v>13.4</v>
+        <v>433.911</v>
       </c>
       <c r="G150" s="1">
-        <v>0.15625</v>
+        <v>0.03</v>
       </c>
       <c r="H150" s="1">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="I150" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J150">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="K150">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="B151" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D151" s="1">
-        <v>0.15</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="F151" s="2">
-        <v>12.651999999999999</v>
+        <v>354.62200000000001</v>
       </c>
       <c r="G151" s="1">
         <v>0</v>
       </c>
       <c r="H151" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K151">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D152" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="F152" s="2">
-        <v>12.564</v>
+        <v>816.05499999999995</v>
       </c>
       <c r="G152" s="1">
-        <v>0.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="H152" s="1">
-        <v>0.51612903225806395</v>
+        <v>0.33</v>
       </c>
       <c r="I152" s="1">
-        <v>3.2258064516128997E-2</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="K152">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D153" s="1">
-        <v>0.16</v>
+        <v>0.183</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="F153" s="2">
-        <v>10.875</v>
+        <v>276.26499999999999</v>
       </c>
       <c r="G153" s="1">
-        <v>0.35294117647058798</v>
+        <v>1</v>
       </c>
       <c r="H153" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I153" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="K153">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6775,182 +6776,182 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
-        <v>210</v>
+        <v>354</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D154" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F154" s="2">
-        <v>10.875</v>
+        <v>308.10599999999999</v>
       </c>
       <c r="G154" s="1">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H154" s="1">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="I154" s="1">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K154">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
       </c>
       <c r="D155" s="1">
-        <v>0.126</v>
+        <v>0.13</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F155" s="2">
-        <v>10.875</v>
+        <v>205.642</v>
       </c>
       <c r="G155" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H155" s="1">
-        <v>1</v>
+        <v>0.68421052631578905</v>
       </c>
       <c r="I155" s="1">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K155">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
-        <v>211</v>
+        <v>356</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D156" s="1">
-        <v>0.111</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="E156">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F156" s="2">
-        <v>8.7100000000000009</v>
+        <v>469.65899999999999</v>
       </c>
       <c r="G156" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H156" s="1">
-        <v>0.33333333333333298</v>
+        <v>0.61</v>
       </c>
       <c r="I156" s="1">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="K156">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D157" s="1">
-        <v>0.114</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E157">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="F157" s="2">
-        <v>7.7439999999999998</v>
+        <v>210.726</v>
       </c>
       <c r="G157" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H157" s="1">
-        <v>0.266666666666666</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I157" s="1">
         <v>0</v>
       </c>
       <c r="J157">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K157">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="B158" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D158" s="1">
-        <v>0.46100000000000002</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F158" s="2">
-        <v>6.9720000000000004</v>
+        <v>450.74700000000001</v>
       </c>
       <c r="G158" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H158" s="1">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="I158" s="1">
-        <v>8.6956521739130405E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J158">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="K158">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
